--- a/templates/dataplant/Gas_exchange_measurement.xlsx
+++ b/templates/dataplant/Gas_exchange_measurement.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>gas exchange measurement protocol</t>
+  </si>
+  <si>
+    <t>licor_measurements.txt</t>
   </si>
   <si>
     <t>25</t>
@@ -1280,7 +1286,7 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -1289,22 +1295,22 @@
         <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
         <v>105</v>
@@ -1313,7 +1319,7 @@
         <v>105</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N2" t="s">
         <v>105</v>
@@ -1322,34 +1328,34 @@
         <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W2" t="s">
         <v>29</v>
       </c>
       <c r="X2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Y2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Z2" t="s">
         <v>105</v>
@@ -1358,7 +1364,7 @@
         <v>105</v>
       </c>
       <c r="AB2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC2" t="s">
         <v>105</v>
@@ -1367,7 +1373,7 @@
         <v>105</v>
       </c>
       <c r="AE2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF2" t="s">
         <v>105</v>
@@ -1376,46 +1382,46 @@
         <v>105</v>
       </c>
       <c r="AH2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AI2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AJ2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AL2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AM2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AN2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AP2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AR2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AS2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AT2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AU2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AV2" t="s">
         <v>105</v>
@@ -1424,7 +1430,7 @@
         <v>105</v>
       </c>
       <c r="AX2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AY2" t="s">
         <v>105</v>
@@ -1433,7 +1439,7 @@
         <v>105</v>
       </c>
       <c r="BA2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BB2" t="s">
         <v>105</v>

--- a/templates/dataplant/Gas_exchange_measurement.xlsx
+++ b/templates/dataplant/Gas_exchange_measurement.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -242,7 +242,7 @@
     <t>Term Accession Number (BAO:0002628)</t>
   </si>
   <si>
-    <t>Parameter [Instrument Model]</t>
+    <t>Component [Instrument Model]</t>
   </si>
   <si>
     <t>Term Source REF (NCIT:C177610)</t>
@@ -326,7 +326,7 @@
     <t>Term Accession Number (NCIT:C48206)</t>
   </si>
   <si>
-    <t>Output [Raw Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
@@ -347,7 +347,7 @@
     <t>UO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000033</t>
+    <t>https://bioregistry.io/UO:0000033</t>
   </si>
   <si>
     <t>V5</t>
@@ -371,13 +371,13 @@
     <t>ENVO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_1000745</t>
+    <t>https://bioregistry.io/ENVO:1000745</t>
   </si>
   <si>
     <t>infrared gas analyzer</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_0000110</t>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_0000110</t>
   </si>
   <si>
     <t>LI-COR</t>
@@ -392,7 +392,7 @@
     <t>degree celsius</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000027</t>
+    <t>https://bioregistry.io/UO:0000027</t>
   </si>
   <si>
     <t>1500</t>
@@ -401,7 +401,7 @@
     <t>microeinstein per square meter per second</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000160</t>
+    <t>https://bioregistry.io/UO:0000160</t>
   </si>
   <si>
     <t>50</t>
@@ -410,7 +410,7 @@
     <t>percent</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000187</t>
+    <t>https://bioregistry.io/UO:0000187</t>
   </si>
   <si>
     <t>400</t>
@@ -565,7 +565,7 @@
     <tableColumn id="25" name="Parameter [instrumentation manufacturer]" totalsRowFunction="none"/>
     <tableColumn id="26" name="Term Source REF (BAO:0002628)" totalsRowFunction="none"/>
     <tableColumn id="27" name="Term Accession Number (BAO:0002628)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Parameter [Instrument Model]" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Component [Instrument Model]" totalsRowFunction="none"/>
     <tableColumn id="29" name="Term Source REF (NCIT:C177610)" totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Accession Number (NCIT:C177610)" totalsRowFunction="none"/>
     <tableColumn id="31" name="Parameter [Instrument Identification Number]" totalsRowFunction="none"/>
@@ -593,7 +593,7 @@
     <tableColumn id="53" name="Parameter [Performed By]" totalsRowFunction="none"/>
     <tableColumn id="54" name="Term Source REF (NCIT:C48206)" totalsRowFunction="none"/>
     <tableColumn id="55" name="Term Accession Number (NCIT:C48206)" totalsRowFunction="none"/>
-    <tableColumn id="56" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="56" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/templates/dataplant/Gas_exchange_measurement.xlsx
+++ b/templates/dataplant/Gas_exchange_measurement.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Description</t>
@@ -197,13 +197,13 @@
     <t>Term Accession Number (PO:0007033)</t>
   </si>
   <si>
-    <t>Characteristic [Sample]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0075)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0075)</t>
+    <t>Characteristic [Sample information]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0178)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0178)</t>
   </si>
   <si>
     <t>Parameter [Environment]</t>
@@ -550,9 +550,9 @@
     <tableColumn id="10" name="Characteristic [whole plant development stage]" totalsRowFunction="none"/>
     <tableColumn id="11" name="Term Source REF (PO:0007033)" totalsRowFunction="none"/>
     <tableColumn id="12" name="Term Accession Number (PO:0007033)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Characteristic [Sample]" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Term Source REF (MIAPPE:0075)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Accession Number (MIAPPE:0075)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Characteristic [Sample information]" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Term Source REF (MIAPPE:0178)" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Accession Number (MIAPPE:0178)" totalsRowFunction="none"/>
     <tableColumn id="16" name="Parameter [Environment]" totalsRowFunction="none"/>
     <tableColumn id="17" name="Term Source REF (NCIT:C16551)" totalsRowFunction="none"/>
     <tableColumn id="18" name="Term Accession Number (NCIT:C16551)" totalsRowFunction="none"/>
